--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="addVolume" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,40 +139,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Nmae_Nmae_Nmae_Nmae_Nmae_Nmae_123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>name*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nmae.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters too long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1111111111111111111111111111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tttt_tttt_tttt_tttt_tttt_tttt_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Disable</t>
-  </si>
-  <si>
-    <t>Nmae_Nmae_Nmae_Nmae_Nmae_Nmae_123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>name*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nmae.</t>
+    <t>test_option1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_option2</t>
+  </si>
+  <si>
+    <t>test_option3</t>
+  </si>
+  <si>
+    <t>test_option4</t>
+  </si>
+  <si>
+    <t>test_option5</t>
+  </si>
+  <si>
+    <t>512B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invaild option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -s "name=test_option,capacity=1GB" -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a export -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid option: -test</t>
+  </si>
+  <si>
+    <t>missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -s "name=test_missing,capacity=1GB" -p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a export -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+  </si>
+  <si>
+    <t>send command(steps)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,145 +313,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>parameters too long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_option1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_option2</t>
-  </si>
-  <si>
-    <t>test_option3</t>
-  </si>
-  <si>
-    <t>test_option4</t>
-  </si>
-  <si>
-    <t>test_option5</t>
-  </si>
-  <si>
-    <t>512B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invaild option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -s "name=test_option,capacity=1GB" -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a export -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalid option: -test</t>
-  </si>
-  <si>
-    <t>missing parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -s "name=test_missing,capacity=1GB" -p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a export -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Missing parameter</t>
+    <t>check command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=T,thinprov=disable" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt31,thinprov=enable" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume name is 1 char and thinprov is disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume name is 32 char and thinprov is disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume name is 2 char and thinprov is enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume name is 31 char and thinprov is enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThinProv: Disabled</t>
+  </si>
+  <si>
+    <t>ThinProv: Enabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: tttt_tttt_tttt_tttt_tttt_tttt31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt_32,thinprov=disable" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: tttt_tttt_tttt_tttt_tttt_tttt_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=98,thinprov=enable" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: 98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -690,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,12 +792,12 @@
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -757,12 +812,12 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -777,12 +832,12 @@
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -797,7 +852,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -817,7 +872,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -837,7 +892,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -857,7 +912,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -877,12 +932,12 @@
         <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -897,7 +952,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -912,43 +967,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.125" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
@@ -977,39 +1093,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1039,7 +1155,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1057,21 +1173,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1080,21 +1196,21 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -1103,21 +1219,21 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
@@ -1126,53 +1242,53 @@
         <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1204,66 +1320,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1277,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1289,114 +1405,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="addVolume" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="100">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -a mod -s "name=T,thinprov=disable" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt31,thinprov=enable" -i 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,11 +368,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -a mod -s "name=98,thinprov=enable" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name: 98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logbias</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>throughput</t>
+  </si>
+  <si>
+    <t>Logbias: throughput</t>
+  </si>
+  <si>
+    <t>Logbias: latency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=T,thinprov=disable,logbias=throughput" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=98,thinprov=enable,logbias=latency" -i 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,7 +771,7 @@
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,8 +790,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -794,8 +813,11 @@
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -814,8 +836,11 @@
       <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -834,8 +859,11 @@
       <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -854,8 +882,11 @@
       <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -874,8 +905,11 @@
       <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -894,8 +928,11 @@
       <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -914,8 +951,11 @@
       <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -934,8 +974,11 @@
       <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -953,6 +996,9 @@
       </c>
       <c r="F10" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -967,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,9 +1026,10 @@
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.75" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -996,76 +1043,79 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>80</v>
       </c>
       <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
       </c>
       <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="addVolume" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="202">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -a add -p 0 -s "name=test_block_4,capacity=1GB,block=64kb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>volume -a add -p 0 -s "name=test_block_5,capacity=1GB,block=128kb"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,83 +328,394 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -a add -p 0 -s "name=test_block_3,capacity=1GB,block=32kb,compress=optimized"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Compress: off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">Block: 8 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 16 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 32 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 64 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 128 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=Test_Test_Test_Test_Test_Test31,capacity=1TB,block=2KB,sector=2KB,sync=disabled,thinprov=Enable,logbias=latency"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_test_test_test_test_test_32,capacity=2TB,block=4KB,sector=4KB,sync=standard,thinprov=Disable,logbias=throughput"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_1,capacity=1GB,block=8kb,compress=off"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_2,capacity=1GB,block=16kb,compress=fast"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_3,capacity=1GB,block=32kb,compress=optimized"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_4,capacity=1GB,block=64kb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_5,capacity=1GB,block=128kb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by default values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">add volume by "name=n,capacity=1GB,block=512B,sector=512B,sync=standard,thinprov=Enable,logbias=latency" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=TN,capacity=2GB,block=1KB,sector=1KB,sync=always,thinprov=Disable,logbias=throughput"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of volume should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific volume should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PoolId</t>
+  </si>
+  <si>
+    <t>TotalCap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsedCap </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>OpStatus</t>
+  </si>
+  <si>
+    <t>volume -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>PoolId:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>OperationalStatus:</t>
+  </si>
+  <si>
+    <t>TotalCapacity:</t>
+  </si>
+  <si>
+    <t>UsedCapacity:</t>
+  </si>
+  <si>
+    <t>Block:</t>
+  </si>
+  <si>
+    <t>Sector:</t>
+  </si>
+  <si>
+    <t>PoolName:</t>
+  </si>
+  <si>
+    <t>ExportedId:</t>
+  </si>
+  <si>
+    <t>ExportedWWN:</t>
+  </si>
+  <si>
+    <t>PoolAvailableCapacity:</t>
+  </si>
+  <si>
+    <t>UsedCapacityByChild:</t>
+  </si>
+  <si>
+    <t>UsedCapacityBySnapshot:</t>
+  </si>
+  <si>
+    <t>WrittenCapacityAfterSnapshot:</t>
+  </si>
+  <si>
+    <t>SyncMode:</t>
+  </si>
+  <si>
+    <t>ThinProv:</t>
+  </si>
+  <si>
+    <t>Logbias:</t>
+  </si>
+  <si>
+    <t>RedundantMetaData:</t>
+  </si>
+  <si>
+    <t>CopiesOfNewData:</t>
+  </si>
+  <si>
+    <t>SnapshotCount:</t>
+  </si>
+  <si>
+    <t>MaxSnapshotCount:</t>
+  </si>
+  <si>
+    <t>CreateDate:</t>
+  </si>
+  <si>
+    <t>PreferCtrlId:</t>
+  </si>
+  <si>
+    <t>Compress:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=T,thinprov=disable,logbias=throughput,compress=off" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: optimized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Compress: fast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Compress: optimized</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 8 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 16 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 32 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 64 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 128 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=Test_Test_Test_Test_Test_Test31,capacity=1TB,block=2KB,sector=2KB,sync=disabled,thinprov=Enable,logbias=latency"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_test_test_test_test_test_32,capacity=2TB,block=4KB,sector=4KB,sync=standard,thinprov=Disable,logbias=throughput"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_1,capacity=1GB,block=8kb,compress=off"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_block_2,capacity=1GB,block=16kb,compress=fast"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_2,capacity=1GB,block=16kb,compress=fast"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_3,capacity=1GB,block=32kb,compress=optimized"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_4,capacity=1GB,block=64kb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_5,capacity=1GB,block=128kb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by default values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">add volume by "name=n,capacity=1GB,block=512B,sector=512B,sync=standard,thinprov=Enable,logbias=latency" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=TN,capacity=2GB,block=1KB,sector=1KB,sync=always,thinprov=Disable,logbias=throughput"</t>
+    <t>volume -a mod -s "name=98,thinprov=enable,logbias=latency,compress=fast" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt31,thinprov=enable,compress=optimized" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">modify volume by "name=T,thinprov=disable,logbias=throughput,compress=off" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify volume by "name=98,thinprov=enable,logbias=latency,compress=fast"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt_32,thinprov=disable" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">modify volume by "name=tttt_tttt_tttt_tttt_tttt_tttt_32,thinprov=disable" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify volume by "name=tttt_tttt_tttt_tttt_tttt_tttt31,thinprov=enable,compress=optimized"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a export -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume 0 should be exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status: Exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume 0 should be un-exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status: Un-Exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 0 -s "name=Nmae_Nmae_Nmae_Nmae_Nmae_Nmae_123"</t>
+  </si>
+  <si>
+    <t>Setting parameters too long</t>
+  </si>
+  <si>
+    <t>volume -a mod -i 0 -s "name="</t>
+  </si>
+  <si>
+    <t>name contain only alphanumeric characters and underscores</t>
+  </si>
+  <si>
+    <t>volume -a mod -i 0 -s "name=name*"</t>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option6,capacity=1GB,compress=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option6,capacity=1GB,logbias=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option1,capacity=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option2,capacity=1GB,block=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option3,capacity=1GB,sector=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option4,capacity=1GB,sync=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option5,capacity=1GB,thinprov=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 20 -s "name=invalid_pool_id,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pool id=[20] is not existed</t>
+  </si>
+  <si>
+    <t>volume -a add -p 257 -s "name=invalid_pool_id,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,256)</t>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 1 -f -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume id=[100] is not existed</t>
+  </si>
+  <si>
+    <t>volume -a export test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a export -i 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,1023)</t>
+  </si>
+  <si>
+    <t>volume -a mod -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 100 -s "name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 1024 -s "name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume 0 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume 1 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,338 +723,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>all of volume should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific volume should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>PoolId</t>
-  </si>
-  <si>
-    <t>TotalCap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UsedCap </t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>OpStatus</t>
-  </si>
-  <si>
-    <t>volume -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -v -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id:</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>PoolId:</t>
-  </si>
-  <si>
-    <t>Status:</t>
-  </si>
-  <si>
-    <t>OperationalStatus:</t>
-  </si>
-  <si>
-    <t>TotalCapacity:</t>
-  </si>
-  <si>
-    <t>UsedCapacity:</t>
-  </si>
-  <si>
-    <t>Block:</t>
-  </si>
-  <si>
-    <t>Sector:</t>
-  </si>
-  <si>
-    <t>PoolName:</t>
-  </si>
-  <si>
-    <t>ExportedId:</t>
-  </si>
-  <si>
-    <t>ExportedWWN:</t>
-  </si>
-  <si>
-    <t>PoolAvailableCapacity:</t>
-  </si>
-  <si>
-    <t>UsedCapacityByChild:</t>
-  </si>
-  <si>
-    <t>UsedCapacityBySnapshot:</t>
-  </si>
-  <si>
-    <t>WrittenCapacityAfterSnapshot:</t>
-  </si>
-  <si>
-    <t>SyncMode:</t>
-  </si>
-  <si>
-    <t>ThinProv:</t>
-  </si>
-  <si>
-    <t>Logbias:</t>
-  </si>
-  <si>
-    <t>RedundantMetaData:</t>
-  </si>
-  <si>
-    <t>CopiesOfNewData:</t>
-  </si>
-  <si>
-    <t>SnapshotCount:</t>
-  </si>
-  <si>
-    <t>MaxSnapshotCount:</t>
-  </si>
-  <si>
-    <t>CreateDate:</t>
-  </si>
-  <si>
-    <t>PreferCtrlId:</t>
-  </si>
-  <si>
-    <t>Compress:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -s "name=T,thinprov=disable,logbias=throughput,compress=off" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compress: optimized</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compress: fast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -s "name=98,thinprov=enable,logbias=latency,compress=fast" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt31,thinprov=enable,compress=optimized" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">modify volume by "name=T,thinprov=disable,logbias=throughput,compress=off" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify volume by "name=98,thinprov=enable,logbias=latency,compress=fast"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt_32,thinprov=disable" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">modify volume by "name=tttt_tttt_tttt_tttt_tttt_tttt_32,thinprov=disable" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify volume by "name=tttt_tttt_tttt_tttt_tttt_tttt31,thinprov=enable,compress=optimized"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a export -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume 0 should be exported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status: Exported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume 0 should be un-exported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status: Un-Exported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 0 -s "name=Nmae_Nmae_Nmae_Nmae_Nmae_Nmae_123"</t>
-  </si>
-  <si>
-    <t>Setting parameters too long</t>
-  </si>
-  <si>
-    <t>volume -a mod -i 0 -s "name="</t>
-  </si>
-  <si>
-    <t>name contain only alphanumeric characters and underscores</t>
-  </si>
-  <si>
-    <t>volume -a mod -i 0 -s "name=name*"</t>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option6,capacity=1GB,compress=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option6,capacity=1GB,logbias=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option1,capacity=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option2,capacity=1GB,block=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option3,capacity=1GB,sector=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option4,capacity=1GB,sync=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option5,capacity=1GB,thinprov=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 20 -s "name=invalid_pool_id,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pool id=[20] is not existed</t>
-  </si>
-  <si>
-    <t>volume -a add -p 257 -s "name=invalid_pool_id,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0,256)</t>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 1 -f -y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume id=[100] is not existed</t>
-  </si>
-  <si>
-    <t>volume -a export test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a export -i 1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i 1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0,1023)</t>
-  </si>
-  <si>
-    <t>volume -a mod -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 100 -s "name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 1024 -s "name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume 0 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume 1 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\r\n0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>\r\n1</t>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_block_2,capacity=1GB,block=16kb,compress=lz4"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_block_3,capacity=1GB,block=32kb,compress=gzip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_block_4,capacity=1GB,block=64kb,compress=zle"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: lz4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: gzip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: zle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1118,7 +1122,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1155,7 +1159,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -1181,10 +1185,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>64</v>
@@ -1213,7 +1217,7 @@
         <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>65</v>
@@ -1242,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>66</v>
@@ -1268,128 +1272,131 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1403,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1431,30 +1438,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1492,60 +1499,60 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>110</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>111</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1603,174 +1610,174 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" t="s">
         <v>119</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" t="s">
         <v>121</v>
       </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="R2" t="s">
         <v>122</v>
       </c>
-      <c r="H2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>130</v>
       </c>
-      <c r="J2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="T2" t="s">
         <v>131</v>
       </c>
-      <c r="N2" t="s">
+      <c r="U2" t="s">
         <v>132</v>
       </c>
-      <c r="O2" t="s">
+      <c r="V2" t="s">
         <v>133</v>
       </c>
-      <c r="P2" t="s">
+      <c r="W2" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" t="s">
-        <v>127</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>135</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>136</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
         <v>137</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>138</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
         <v>139</v>
-      </c>
-      <c r="X2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
         <v>118</v>
       </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>119</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" t="s">
         <v>121</v>
       </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="R3" t="s">
         <v>122</v>
       </c>
-      <c r="H3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="S3" t="s">
         <v>130</v>
       </c>
-      <c r="J3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="T3" t="s">
         <v>131</v>
       </c>
-      <c r="N3" t="s">
+      <c r="U3" t="s">
         <v>132</v>
       </c>
-      <c r="O3" t="s">
+      <c r="V3" t="s">
         <v>133</v>
       </c>
-      <c r="P3" t="s">
+      <c r="W3" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R3" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="X3" t="s">
         <v>135</v>
       </c>
-      <c r="T3" t="s">
+      <c r="Y3" t="s">
         <v>136</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Z3" t="s">
         <v>137</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AA3" t="s">
         <v>138</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AB3" t="s">
         <v>139</v>
-      </c>
-      <c r="X3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1783,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1813,10 +1820,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
         <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1831,15 +1838,15 @@
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1854,15 +1861,15 @@
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
         <v>149</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1874,15 +1881,15 @@
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1933,16 +1940,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1982,16 +1989,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2025,7 +2032,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -2033,7 +2040,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -2041,7 +2048,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -2049,7 +2056,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2057,7 +2064,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
@@ -2065,7 +2072,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -2073,7 +2080,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>1</v>
@@ -2081,7 +2088,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>1</v>
@@ -2089,7 +2096,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>1</v>
@@ -2097,26 +2104,26 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>1</v>
@@ -2124,7 +2131,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -2132,124 +2139,124 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="205">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,600 +157,612 @@
     <t>ThinProv: Disabled</t>
   </si>
   <si>
+    <t>Name: tttt_tttt_tttt_tttt_tttt_tttt31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: tttt_tttt_tttt_tttt_tttt_tttt_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: 98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logbias: throughput</t>
+  </si>
+  <si>
+    <t>send command</t>
+  </si>
+  <si>
+    <t>expect result</t>
+  </si>
+  <si>
+    <t>send command for checkpoint</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>volume -v -i 0</t>
+  </si>
+  <si>
+    <t>Name: n</t>
+  </si>
+  <si>
+    <t>Block: 512 Bytes</t>
+  </si>
+  <si>
+    <t>Sector: 512 Bytes</t>
+  </si>
+  <si>
+    <t>SyncMode: standard</t>
+  </si>
+  <si>
     <t>ThinProv: Enabled</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: tttt_tttt_tttt_tttt_tttt_tttt31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: tttt_tttt_tttt_tttt_tttt_tttt_32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: 98</t>
+  </si>
+  <si>
+    <t>Logbias: latency</t>
+  </si>
+  <si>
+    <t>Name: TN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block: 1 KB</t>
+  </si>
+  <si>
+    <t>Sector: 1 KB</t>
+  </si>
+  <si>
+    <t>SyncMode: always</t>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=Test_Test_Test_Test_Test_Test31,capacity=1TB,block=2KB,sector=2KB,sync=disabled,thinprov=Enable,logbias=latency"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: Test_Test_Test_Test_Test_Test31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 2 KB </t>
+  </si>
+  <si>
+    <t>Sector: 2 KB</t>
+  </si>
+  <si>
+    <t>SyncMode: disabled</t>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_test_test_test_test_test_32,capacity=2TB,block=4KB,sector=4KB,sync=standard,thinprov=Disable,logbias=throughput"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_test_test_test_test_test_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 4 KB </t>
+  </si>
+  <si>
+    <t>Sector: 4 KB</t>
+  </si>
+  <si>
+    <t>volume -v -i 1</t>
+  </si>
+  <si>
+    <t>volume -v -i 2</t>
+  </si>
+  <si>
+    <t>volume -v -i 3</t>
+  </si>
+  <si>
+    <t>volume -v -i 4</t>
+  </si>
+  <si>
+    <t>volume -v -i 5</t>
+  </si>
+  <si>
+    <t>volume -v -i 6</t>
+  </si>
+  <si>
+    <t>volume -v -i 7</t>
+  </si>
+  <si>
+    <t>volume -v -i 8</t>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=n,capacity=1GB,block=512B,sector=512B,sync=standard,thinprov=Enable,logbias=latency"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_block_5,capacity=1GB,block=128kb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_default_values,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=TN,capacity=2GB,block=1KB,sector=1KB,sync=always,thinprov=Disable,logbias=throughput"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 9</t>
+  </si>
+  <si>
+    <t>Name: test_default_values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block: 8 KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_block_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: test_block_2</t>
+  </si>
+  <si>
+    <t>Name: test_block_3</t>
+  </si>
+  <si>
+    <t>Name: test_block_4</t>
+  </si>
+  <si>
+    <t>Name: test_block_5</t>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_block_1,capacity=1GB,block=8kb,compress=off"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 8 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 16 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 32 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 64 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Block: 128 KB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=Test_Test_Test_Test_Test_Test31,capacity=1TB,block=2KB,sector=2KB,sync=disabled,thinprov=Enable,logbias=latency"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_test_test_test_test_test_32,capacity=2TB,block=4KB,sector=4KB,sync=standard,thinprov=Disable,logbias=throughput"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_1,capacity=1GB,block=8kb,compress=off"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_2,capacity=1GB,block=16kb,compress=fast"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_3,capacity=1GB,block=32kb,compress=optimized"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_4,capacity=1GB,block=64kb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=test_block_5,capacity=1GB,block=128kb"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by default values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">add volume by "name=n,capacity=1GB,block=512B,sector=512B,sync=standard,thinprov=Enable,logbias=latency" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add volume by "name=TN,capacity=2GB,block=1KB,sector=1KB,sync=always,thinprov=Disable,logbias=throughput"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all of volume should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific volume should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PoolId</t>
+  </si>
+  <si>
+    <t>TotalCap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsedCap </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>OpStatus</t>
+  </si>
+  <si>
+    <t>volume -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -v -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>PoolId:</t>
+  </si>
+  <si>
+    <t>Status:</t>
+  </si>
+  <si>
+    <t>OperationalStatus:</t>
+  </si>
+  <si>
+    <t>TotalCapacity:</t>
+  </si>
+  <si>
+    <t>UsedCapacity:</t>
+  </si>
+  <si>
+    <t>Block:</t>
+  </si>
+  <si>
+    <t>Sector:</t>
+  </si>
+  <si>
+    <t>PoolName:</t>
+  </si>
+  <si>
+    <t>ExportedId:</t>
+  </si>
+  <si>
+    <t>ExportedWWN:</t>
+  </si>
+  <si>
+    <t>PoolAvailableCapacity:</t>
+  </si>
+  <si>
+    <t>UsedCapacityByChild:</t>
+  </si>
+  <si>
+    <t>UsedCapacityBySnapshot:</t>
+  </si>
+  <si>
+    <t>WrittenCapacityAfterSnapshot:</t>
+  </si>
+  <si>
+    <t>SyncMode:</t>
+  </si>
+  <si>
+    <t>ThinProv:</t>
+  </si>
+  <si>
+    <t>Logbias:</t>
+  </si>
+  <si>
+    <t>RedundantMetaData:</t>
+  </si>
+  <si>
+    <t>CopiesOfNewData:</t>
+  </si>
+  <si>
+    <t>SnapshotCount:</t>
+  </si>
+  <si>
+    <t>MaxSnapshotCount:</t>
+  </si>
+  <si>
+    <t>CreateDate:</t>
+  </si>
+  <si>
+    <t>PreferCtrlId:</t>
+  </si>
+  <si>
+    <t>Compress:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a export -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume 0 should be exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status: Exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume 0 should be un-exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status: Un-Exported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 0 -s "name=Nmae_Nmae_Nmae_Nmae_Nmae_Nmae_123"</t>
+  </si>
+  <si>
+    <t>Setting parameters too long</t>
+  </si>
+  <si>
+    <t>volume -a mod -i 0 -s "name="</t>
+  </si>
+  <si>
+    <t>name contain only alphanumeric characters and underscores</t>
+  </si>
+  <si>
+    <t>volume -a mod -i 0 -s "name=name*"</t>
+  </si>
+  <si>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option6,capacity=1GB,compress=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option6,capacity=1GB,logbias=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option1,capacity=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option2,capacity=1GB,block=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option3,capacity=1GB,sector=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option4,capacity=1GB,sync=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_option5,capacity=1GB,thinprov=Test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 20 -s "name=invalid_pool_id,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pool id=[20] is not existed</t>
+  </si>
+  <si>
+    <t>volume -a add -p 257 -s "name=invalid_pool_id,capacity=1GB"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,256)</t>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s ""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 1 -f -y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume id=[100] is not existed</t>
+  </si>
+  <si>
+    <t>volume -a export test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a export -i 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a del -i 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a unexport -i 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,1023)</t>
+  </si>
+  <si>
+    <t>volume -a mod -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 100 -s "name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -i 1024 -s "name=test"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume 0 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume 1 should be deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\r\n0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\r\n1</t>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_block_2,capacity=1GB,block=16kb,compress=lz4"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_block_3,capacity=1GB,block=32kb,compress=gzip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a add -p 0 -s "name=test_block_4,capacity=1GB,block=64kb,compress=zle"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: lz4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: gzip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: zle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=T,sync=standard,logbias=throughput,compress=lz4,thinprov=enable" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify volume by "name=T,sync=standard,logbias=throughput,compress=lz4,thinprov=enable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=98,sync=always,logbias=latency,compress=off,thinprov=disable" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt_32,sync=standard,compress=zle" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify volume by "name=98,sync=always,logbias=latency,compress=off,thinprov=disable"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt31,sync=disabled,compress=gzip" -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify volume by "name=tttt_tttt_tttt_tttt_tttt_tttt31,sync=disabled,compress=gzip"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify volume "name=tttt_tttt_tttt_tttt_tttt_tttt_32,sync=standard,compress=zle"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncMode: standard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Logbias: throughput</t>
-  </si>
-  <si>
-    <t>Logbias: latency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send command</t>
-  </si>
-  <si>
-    <t>expect result</t>
-  </si>
-  <si>
-    <t>send command for checkpoint</t>
-  </si>
-  <si>
-    <t>checkpoint</t>
-  </si>
-  <si>
-    <t>volume -v -i 0</t>
-  </si>
-  <si>
-    <t>Name: n</t>
-  </si>
-  <si>
-    <t>Block: 512 Bytes</t>
-  </si>
-  <si>
-    <t>Sector: 512 Bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: lz4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: gzip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress: zle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncMode: disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SyncMode: standard</t>
-  </si>
-  <si>
-    <t>ThinProv: Enabled</t>
-  </si>
-  <si>
-    <t>Logbias: latency</t>
-  </si>
-  <si>
-    <t>Name: TN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block: 1 KB</t>
-  </si>
-  <si>
-    <t>Sector: 1 KB</t>
-  </si>
-  <si>
-    <t>SyncMode: always</t>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=Test_Test_Test_Test_Test_Test31,capacity=1TB,block=2KB,sector=2KB,sync=disabled,thinprov=Enable,logbias=latency"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: Test_Test_Test_Test_Test_Test31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 2 KB </t>
-  </si>
-  <si>
-    <t>Sector: 2 KB</t>
-  </si>
-  <si>
-    <t>SyncMode: disabled</t>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_test_test_test_test_test_32,capacity=2TB,block=4KB,sector=4KB,sync=standard,thinprov=Disable,logbias=throughput"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: test_test_test_test_test_test_32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 4 KB </t>
-  </si>
-  <si>
-    <t>Sector: 4 KB</t>
-  </si>
-  <si>
-    <t>volume -v -i 1</t>
-  </si>
-  <si>
-    <t>volume -v -i 2</t>
-  </si>
-  <si>
-    <t>volume -v -i 3</t>
-  </si>
-  <si>
-    <t>volume -v -i 4</t>
-  </si>
-  <si>
-    <t>volume -v -i 5</t>
-  </si>
-  <si>
-    <t>volume -v -i 6</t>
-  </si>
-  <si>
-    <t>volume -v -i 7</t>
-  </si>
-  <si>
-    <t>volume -v -i 8</t>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=n,capacity=1GB,block=512B,sector=512B,sync=standard,thinprov=Enable,logbias=latency"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_block_5,capacity=1GB,block=128kb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_default_values,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=TN,capacity=2GB,block=1KB,sector=1KB,sync=always,thinprov=Disable,logbias=throughput"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -v -i 9</t>
-  </si>
-  <si>
-    <t>Name: test_default_values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block: 8 KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: test_block_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name: test_block_2</t>
-  </si>
-  <si>
-    <t>Name: test_block_3</t>
-  </si>
-  <si>
-    <t>Name: test_block_4</t>
-  </si>
-  <si>
-    <t>Name: test_block_5</t>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_block_1,capacity=1GB,block=8kb,compress=off"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compress: off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 8 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 16 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 32 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 64 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block: 128 KB </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=Test_Test_Test_Test_Test_Test31,capacity=1TB,block=2KB,sector=2KB,sync=disabled,thinprov=Enable,logbias=latency"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_test_test_test_test_test_32,capacity=2TB,block=4KB,sector=4KB,sync=standard,thinprov=Disable,logbias=throughput"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_1,capacity=1GB,block=8kb,compress=off"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_2,capacity=1GB,block=16kb,compress=fast"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_3,capacity=1GB,block=32kb,compress=optimized"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_4,capacity=1GB,block=64kb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=test_block_5,capacity=1GB,block=128kb"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by default values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">add volume by "name=n,capacity=1GB,block=512B,sector=512B,sync=standard,thinprov=Enable,logbias=latency" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add volume by "name=TN,capacity=2GB,block=1KB,sector=1KB,sync=always,thinprov=Disable,logbias=throughput"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all of volume should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specific volume should be listed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>PoolId</t>
-  </si>
-  <si>
-    <t>TotalCap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UsedCap </t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>OpStatus</t>
-  </si>
-  <si>
-    <t>volume -v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -v -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id:</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
-    <t>PoolId:</t>
-  </si>
-  <si>
-    <t>Status:</t>
-  </si>
-  <si>
-    <t>OperationalStatus:</t>
-  </si>
-  <si>
-    <t>TotalCapacity:</t>
-  </si>
-  <si>
-    <t>UsedCapacity:</t>
-  </si>
-  <si>
-    <t>Block:</t>
-  </si>
-  <si>
-    <t>Sector:</t>
-  </si>
-  <si>
-    <t>PoolName:</t>
-  </si>
-  <si>
-    <t>ExportedId:</t>
-  </si>
-  <si>
-    <t>ExportedWWN:</t>
-  </si>
-  <si>
-    <t>PoolAvailableCapacity:</t>
-  </si>
-  <si>
-    <t>UsedCapacityByChild:</t>
-  </si>
-  <si>
-    <t>UsedCapacityBySnapshot:</t>
-  </si>
-  <si>
-    <t>WrittenCapacityAfterSnapshot:</t>
-  </si>
-  <si>
-    <t>SyncMode:</t>
-  </si>
-  <si>
-    <t>ThinProv:</t>
-  </si>
-  <si>
-    <t>Logbias:</t>
-  </si>
-  <si>
-    <t>RedundantMetaData:</t>
-  </si>
-  <si>
-    <t>CopiesOfNewData:</t>
-  </si>
-  <si>
-    <t>SnapshotCount:</t>
-  </si>
-  <si>
-    <t>MaxSnapshotCount:</t>
-  </si>
-  <si>
-    <t>CreateDate:</t>
-  </si>
-  <si>
-    <t>PreferCtrlId:</t>
-  </si>
-  <si>
-    <t>Compress:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -s "name=T,thinprov=disable,logbias=throughput,compress=off" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compress: optimized</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compress: fast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -s "name=98,thinprov=enable,logbias=latency,compress=fast" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt31,thinprov=enable,compress=optimized" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">modify volume by "name=T,thinprov=disable,logbias=throughput,compress=off" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify volume by "name=98,thinprov=enable,logbias=latency,compress=fast"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -s "name=tttt_tttt_tttt_tttt_tttt_tttt_32,thinprov=disable" -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">modify volume by "name=tttt_tttt_tttt_tttt_tttt_tttt_32,thinprov=disable" </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify volume by "name=tttt_tttt_tttt_tttt_tttt_tttt31,thinprov=enable,compress=optimized"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a export -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume 0 should be exported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status: Exported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume 0 should be un-exported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status: Un-Exported</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 0 -s "name=Nmae_Nmae_Nmae_Nmae_Nmae_Nmae_123"</t>
-  </si>
-  <si>
-    <t>Setting parameters too long</t>
-  </si>
-  <si>
-    <t>volume -a mod -i 0 -s "name="</t>
-  </si>
-  <si>
-    <t>name contain only alphanumeric characters and underscores</t>
-  </si>
-  <si>
-    <t>volume -a mod -i 0 -s "name=name*"</t>
-  </si>
-  <si>
-    <t>Invalid setting parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option6,capacity=1GB,compress=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option6,capacity=1GB,logbias=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option1,capacity=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option2,capacity=1GB,block=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option3,capacity=1GB,sector=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option4,capacity=1GB,sync=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_option5,capacity=1GB,thinprov=Test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 20 -s "name=invalid_pool_id,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pool id=[20] is not existed</t>
-  </si>
-  <si>
-    <t>volume -a add -p 257 -s "name=invalid_pool_id,capacity=1GB"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0,256)</t>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s ""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 1 -f -y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volume id=[100] is not existed</t>
-  </si>
-  <si>
-    <t>volume -a export test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a export -i 1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a del -i 1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i 1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0,1023)</t>
-  </si>
-  <si>
-    <t>volume -a mod -i test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 100 -s "name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a mod -i 1024 -s "name=test"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume 0 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume 1 should be deleted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\r\n0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\r\n1</t>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_block_2,capacity=1GB,block=16kb,compress=lz4"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_block_3,capacity=1GB,block=32kb,compress=gzip"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a add -p 0 -s "name=test_block_4,capacity=1GB,block=64kb,compress=zle"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compress: lz4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compress: gzip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compress: zle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,261 +1154,261 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1424,44 +1436,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1488,71 +1500,71 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>109</v>
-      </c>
-      <c r="H2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>107</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>108</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>109</v>
-      </c>
-      <c r="H3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1599,185 +1611,185 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
         <v>114</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
         <v>116</v>
       </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>117</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" t="s">
         <v>124</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>125</v>
       </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" t="s">
         <v>119</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>120</v>
       </c>
-      <c r="M2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>128</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>130</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>131</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>132</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>133</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>134</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>135</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>136</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>137</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
         <v>116</v>
       </c>
-      <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>117</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" t="s">
         <v>124</v>
       </c>
-      <c r="I3" t="s">
+      <c r="N3" t="s">
         <v>125</v>
       </c>
-      <c r="J3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" t="s">
         <v>119</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>120</v>
       </c>
-      <c r="M3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>128</v>
       </c>
-      <c r="P3" t="s">
+      <c r="T3" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>130</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>131</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>132</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>133</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>134</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>135</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>136</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>137</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1790,18 +1802,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="97" customWidth="1"/>
-    <col min="2" max="2" width="73.625" customWidth="1"/>
+    <col min="1" max="1" width="94.75" customWidth="1"/>
+    <col min="2" max="2" width="88.25" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1820,10 +1833,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1832,73 +1845,76 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>141</v>
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>202</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1925,31 +1941,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1974,31 +1990,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2009,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2024,7 +2040,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2032,7 +2048,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -2040,23 +2056,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>164</v>
+      <c r="A4" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>165</v>
+      <c r="A5" t="s">
+        <v>154</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2064,7 +2080,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
@@ -2072,7 +2088,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
@@ -2080,7 +2096,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>1</v>
@@ -2088,7 +2104,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>1</v>
@@ -2096,167 +2112,159 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>187</v>
+      <c r="A14" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>180</v>
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>189</v>
+      <c r="A16" t="s">
+        <v>144</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>157</v>
+      <c r="C17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>158</v>
+      <c r="A18" t="s">
+        <v>148</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>180</v>
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C24" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" t="s">
-        <v>186</v>
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="addVolume" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="206">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,9 @@
   <si>
     <t>SyncMode: standard</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The parameter [name] is None or empty</t>
   </si>
 </sst>
 </file>
@@ -1802,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2027,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2177,10 +2180,7 @@
         <v>146</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">

--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="addVolume" sheetId="1" r:id="rId1"/>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1805,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1814,7 +1814,7 @@
     <col min="1" max="1" width="94.75" customWidth="1"/>
     <col min="2" max="2" width="88.25" customWidth="1"/>
     <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="42.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="addVolume" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="206">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,7 +766,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The parameter [name] is None or empty</t>
+    <t>Invalid setting parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1805,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2030,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2181,6 +2182,9 @@
       </c>
       <c r="B17" s="6" t="s">
         <v>205</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">

--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853"/>
   </bookViews>
   <sheets>
     <sheet name="addVolume" sheetId="1" r:id="rId1"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1403,7 +1403,7 @@
         <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>33</v>
@@ -2031,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="addVolume" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="206">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2029,245 +2029,323 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="72.75" customWidth="1"/>
-    <col min="2" max="2" width="32.25" customWidth="1"/>
-    <col min="3" max="3" width="60.125" customWidth="1"/>
+    <col min="2" max="3" width="32.25" customWidth="1"/>
+    <col min="4" max="4" width="60.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>164</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>152</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>154</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>150</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>157</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>159</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>161</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>175</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C14" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>144</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>148</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>165</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>167</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>171</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>169</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C22" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>170</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>166</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C24" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>173</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C25" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>172</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2280,79 +2358,103 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="62.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2365,127 +2467,169 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="58.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data/volume.xlsx
+++ b/data/volume.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="853" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="addVolume" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="205">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,14 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume -a unexport -i 1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume -a unexport -i 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(0,1023)</t>
   </si>
   <si>
@@ -667,10 +659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>\r\n0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,6 +756,13 @@
   <si>
     <t>Invalid setting parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume -i 1</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1303,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>92</v>
@@ -1323,12 +1318,12 @@
         <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>93</v>
@@ -1343,12 +1338,12 @@
         <v>86</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>94</v>
@@ -1363,7 +1358,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1426,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1457,13 +1452,13 @@
         <v>162</v>
       </c>
       <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
         <v>178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1471,13 +1466,13 @@
         <v>163</v>
       </c>
       <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="s">
         <v>179</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1837,10 +1832,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1849,21 +1844,21 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1878,15 +1873,15 @@
         <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1895,18 +1890,18 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1915,10 +1910,10 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2029,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2179,7 +2174,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>1</v>
@@ -2190,7 +2185,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>168</v>
@@ -2201,7 +2196,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
@@ -2210,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -2229,10 +2224,10 @@
         <v>146</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
         <v>147</v>
@@ -2285,7 +2280,7 @@
         <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -2310,7 +2305,7 @@
         <v>149</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -2322,31 +2317,6 @@
       </c>
       <c r="C24" s="6" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
